--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/90995999/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/90995999/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9917919635772705</v>
+        <v>0.9991905093193054</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9975661039352417</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9418988823890686</v>
+        <v>0.9993014335632324</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9986376166343689</v>
+        <v>0.9968632459640503</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9915288686752319</v>
+        <v>0.9999279975891113</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9983612895011902</v>
+        <v>0.999882698059082</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7662411332130432</v>
+        <v>0.9999147653579712</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9985876083374023</v>
+        <v>0.9999010562896729</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9908528923988342</v>
+        <v>0.9999147653579712</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998112678527832</v>
+        <v>0.999699592590332</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9985994696617126</v>
+        <v>0.9999288320541382</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9981594681739807</v>
+        <v>0.9983718991279602</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9036025404930115</v>
+        <v>0.9997847676277161</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9815447330474854</v>
+        <v>0.9992057681083679</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.998621940612793</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9917268753051758</v>
+        <v>0.9999048709869385</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9926899075508118</v>
+        <v>0.8502875566482544</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9985390901565552</v>
+        <v>0.9999240636825562</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986171722412109</v>
+        <v>0.999785840511322</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9482904672622681</v>
+        <v>0.9999189376831055</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986234903335571</v>
+        <v>0.9998955726623535</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9920380115509033</v>
+        <v>0.9999266862869263</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7217662334442139</v>
+        <v>0.9998486042022705</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9845638275146484</v>
+        <v>0.9047242999076843</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9986494183540344</v>
+        <v>0.7921531796455383</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9983766078948975</v>
+        <v>0.9997199177742004</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9925693869590759</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9986463189125061</v>
+        <v>0.9999033212661743</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9986304044723511</v>
+        <v>0.9999246597290039</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9999151229858398</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9871587157249451</v>
+        <v>0.7852944731712341</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9764025211334229</v>
+        <v>0.9928802847862244</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9904486536979675</v>
+        <v>0.9979516863822937</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9876965880393982</v>
+        <v>0.9987326264381409</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9986615180969238</v>
+        <v>0.9999089241027832</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9986110925674438</v>
+        <v>0.9985764026641846</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.998646080493927</v>
+        <v>0.9997591376304626</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.992296040058136</v>
+        <v>0.9948661327362061</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9985675811767578</v>
+        <v>0.9930397272109985</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9985864162445068</v>
+        <v>0.9999113082885742</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9986181259155273</v>
+        <v>0.9951810240745544</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9985817670822144</v>
+        <v>0.9856331944465637</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9986342787742615</v>
+        <v>0.9984821677207947</v>
       </c>
     </row>
     <row r="45">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9868620634078979</v>
+        <v>0.9980157613754272</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9984381794929504</v>
+        <v>0.9151384234428406</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9975517392158508</v>
+        <v>0.9886309504508972</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7086578011512756</v>
+        <v>0.9832227826118469</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9999206066131592</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.998577356338501</v>
+        <v>0.9977664947509766</v>
       </c>
     </row>
     <row r="51">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.988194465637207</v>
+        <v>0.6049442291259766</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9889299273490906</v>
+        <v>0.9999281167984009</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9986416697502136</v>
+        <v>0.9977664947509766</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9985669255256653</v>
+        <v>0.9922048449516296</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9986724853515625</v>
+        <v>0.9999297857284546</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9823594689369202</v>
+        <v>0.9999021291732788</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9986740350723267</v>
+        <v>0.9999153614044189</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9986133575439453</v>
+        <v>0.9979185461997986</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986067414283752</v>
+        <v>0.9997994303703308</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9985361099243164</v>
+        <v>0.9995654225349426</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9922229647636414</v>
+        <v>0.9999029636383057</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9980303645133972</v>
+        <v>0.9999183416366577</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.99860018491745</v>
+        <v>0.9984487295150757</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9880339503288269</v>
+        <v>0.9944750666618347</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9985961318016052</v>
+        <v>0.9985197186470032</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9986196756362915</v>
+        <v>0.9985197186470032</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9908587336540222</v>
+        <v>0.9984123706817627</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9823594689369202</v>
+        <v>0.9985197186470032</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9986346364021301</v>
+        <v>0.9981949925422668</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9985450506210327</v>
+        <v>0.9999293088912964</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9986011385917664</v>
+        <v>0.9980504512786865</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9986214637756348</v>
+        <v>0.9999191761016846</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9986182451248169</v>
+        <v>0.9986053109169006</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9960808157920837</v>
+        <v>0.9997919201850891</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985887408256531</v>
+        <v>0.9999163150787354</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9985944628715515</v>
+        <v>0.9986053109169006</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9957001209259033</v>
+        <v>0.9998903274536133</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9986796975135803</v>
+        <v>0.9986053109169006</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9986485838890076</v>
+        <v>0.9999258518218994</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9987706542015076</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9984948635101318</v>
+        <v>0.999806821346283</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9914324283599854</v>
+        <v>0.9987706542015076</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9998859167098999</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9986670017242432</v>
+        <v>0.9998859167098999</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9985187649726868</v>
+        <v>0.999914288520813</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.976915717124939</v>
+        <v>0.9986944794654846</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9947132468223572</v>
+        <v>0.9994542002677917</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9982737302780151</v>
+        <v>0.9987780451774597</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9985454082489014</v>
+        <v>0.9996868371963501</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9892724752426147</v>
+        <v>0.9998927116394043</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9917919635772705</v>
+        <v>0.9998928308486938</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9930046200752258</v>
+        <v>0.9998974800109863</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9985097050666809</v>
+        <v>0.9998917579650879</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9985979199409485</v>
+        <v>0.9998995065689087</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9913378953933716</v>
+        <v>0.9998965263366699</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9925693869590759</v>
+        <v>0.9998760223388672</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9919296503067017</v>
+        <v>0.9733240604400635</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.998643696308136</v>
+        <v>0.9998700618743896</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9978225231170654</v>
+        <v>0.9643509387969971</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9986193180084229</v>
+        <v>0.999915599822998</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9986237287521362</v>
+        <v>0.9999121427536011</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9986187219619751</v>
+        <v>0.8936796188354492</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8534478545188904</v>
+        <v>0.9994572997093201</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9978589415550232</v>
+        <v>0.9999274015426636</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9918225407600403</v>
+        <v>0.9985933899879456</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.998658299446106</v>
+        <v>0.9999241828918457</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7195775508880615</v>
+        <v>0.9500327706336975</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9982617497444153</v>
+        <v>0.9979445338249207</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9869365096092224</v>
+        <v>0.9998962879180908</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9986035227775574</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9986414313316345</v>
+        <v>0.9919837117195129</v>
       </c>
     </row>
     <row r="112">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9417387843132019</v>
+        <v>0.9735704064369202</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9883971810340881</v>
+        <v>0.9826866388320923</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9866164922714233</v>
+        <v>0.9999020099639893</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9925165772438049</v>
+        <v>0.9985452890396118</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9384814500808716</v>
+        <v>0.9651504755020142</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9985958933830261</v>
+        <v>0.9998418092727661</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9986591339111328</v>
+        <v>0.4643348753452301</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.998634397983551</v>
+        <v>0.636144757270813</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9985847473144531</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9869104027748108</v>
+        <v>0.998831570148468</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9912844896316528</v>
+        <v>0.9999024868011475</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.998641312122345</v>
+        <v>0.998831570148468</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9985866546630859</v>
+        <v>0.9999024868011475</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9985936284065247</v>
+        <v>0.998831570148468</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9981232285499573</v>
+        <v>0.999916672706604</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9883971810340881</v>
+        <v>0.9993683695793152</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998609185218811</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9986416697502136</v>
+        <v>0.6406388282775879</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9985525012016296</v>
+        <v>0.9993488192558289</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9985623955726624</v>
+        <v>0.9998893737792969</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9922656416893005</v>
+        <v>0.5258941650390625</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9985658526420593</v>
+        <v>0.9998443126678467</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9984546899795532</v>
+        <v>0.9998570680618286</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9985357522964478</v>
+        <v>0.9999136924743652</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9925693869590759</v>
+        <v>0.9832530617713928</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9986225366592407</v>
+        <v>0.9998468160629272</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.978147566318512</v>
+        <v>0.9995325803756714</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9866164922714233</v>
+        <v>0.9999064207077026</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9986045956611633</v>
+        <v>0.9999113082885742</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9418741464614868</v>
+        <v>0.550264835357666</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9624959826469421</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9910725951194763</v>
+        <v>0.9986041188240051</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9986245632171631</v>
+        <v>0.9998854398727417</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9986501336097717</v>
+        <v>0.9986041188240051</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8879632353782654</v>
+        <v>0.9999141693115234</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9985393285751343</v>
+        <v>0.9981949925422668</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9984728693962097</v>
+        <v>0.9999279975891113</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9985677003860474</v>
+        <v>0.9984839558601379</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9883971810340881</v>
+        <v>0.9632948040962219</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9912844896316528</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9986599683761597</v>
+        <v>0.8584020733833313</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9985309839248657</v>
+        <v>0.9999308586120605</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9888111352920532</v>
+        <v>0.9958192110061646</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9793603420257568</v>
+        <v>0.9999256134033203</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9985313415527344</v>
+        <v>0.9976054430007935</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8752186298370361</v>
+        <v>0.9999244213104248</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9917919635772705</v>
+        <v>0.9971725940704346</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9698250889778137</v>
+        <v>0.9999194145202637</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.4449149966239929</v>
+        <v>0.9936046004295349</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9986653327941895</v>
+        <v>0.999875545501709</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9685579538345337</v>
+        <v>0.9960834980010986</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.992612361907959</v>
+        <v>0.9998977184295654</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9986299276351929</v>
+        <v>0.9980680346488953</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9999223947525024</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9985083937644958</v>
+        <v>0.836689829826355</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9876965880393982</v>
+        <v>0.9896386861801147</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9986245632171631</v>
+        <v>0.9973365664482117</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.5367518067359924</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9986028075218201</v>
+        <v>0.9896386861801147</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9986268281936646</v>
+        <v>0.9977207779884338</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9925165772438049</v>
+        <v>0.9999345541000366</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.961036205291748</v>
+        <v>0.9999140501022339</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9985978007316589</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9985219836235046</v>
+        <v>0.9999140501022339</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9309610724449158</v>
+        <v>0.9999140501022339</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.998635470867157</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9701319932937622</v>
+        <v>0.9998983144760132</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7902443408966064</v>
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9986376166343689</v>
+        <v>0.9999136924743652</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9984947443008423</v>
+        <v>0.9999006986618042</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9986248016357422</v>
+        <v>0.9999229907989502</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9986317753791809</v>
+        <v>0.9884059429168701</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9858945608139038</v>
+        <v>0.9999301433563232</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9985847473144531</v>
+        <v>0.9999047517776489</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9982454776763916</v>
+        <v>0.9999102354049683</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9925643801689148</v>
+        <v>0.9997932314872742</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986259937286377</v>
+        <v>0.9997832179069519</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9900289177894592</v>
+        <v>0.9997692704200745</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9986693859100342</v>
+        <v>0.9998326301574707</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.991727352142334</v>
+        <v>0.970183789730072</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9999097585678101</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9925668239593506</v>
+        <v>0.9998519420623779</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.99854576587677</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9986061453819275</v>
+        <v>0.8886449337005615</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9982098340988159</v>
+        <v>0.9999308586120605</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9986257553100586</v>
+        <v>0.999881386756897</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9985730648040771</v>
+        <v>0.9998873472213745</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9986327290534973</v>
+        <v>0.9999266862869263</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9986448884010315</v>
+        <v>0.9715194702148438</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4816867709159851</v>
+        <v>0.9999257326126099</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9986245632171631</v>
+        <v>0.9999222755432129</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.9996861219406128</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9913085103034973</v>
+        <v>0.9889878630638123</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9890598058700562</v>
+        <v>0.999796450138092</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.436026930809021</v>
+        <v>0.9999291896820068</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9857226014137268</v>
+        <v>0.9757527709007263</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.998599112033844</v>
+        <v>0.9999254941940308</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9986750483512878</v>
+        <v>0.7513335943222046</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9985876083374023</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
   </sheetData>
